--- a/files/Converter calculator.xlsx
+++ b/files/Converter calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhdinh\Desktop\2796947418\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhdinh\Desktop\GarFit\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65ECB4-9A56-4990-8A03-993E2FFB6DBC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38112E14-7706-45A5-93BE-00B0579E5B35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="4350" xr2:uid="{8A3FDF3D-9673-4881-829F-2BBAB3D8ACF3}"/>
   </bookViews>
@@ -955,8 +955,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\Thh:mm:ss.000\Z"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm:ss.000\Z"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1012,9 +1012,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1333,7 @@
   <dimension ref="A3:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,11 +2001,11 @@
         <v>880719813</v>
       </c>
       <c r="F12" s="7">
-        <f>(E12/86400)+DATE(1989,31,12)</f>
+        <f t="shared" ref="F12:F17" si="0">(E12/86400)+DATE(1989,31,12)</f>
         <v>43624.51635416667</v>
       </c>
       <c r="G12">
-        <f>(F12-DATE(1989,31,12))*86400</f>
+        <f t="shared" ref="G12:G17" si="1">(F12-DATE(1989,31,12))*86400</f>
         <v>880719813.00000024</v>
       </c>
       <c r="H12" t="b">
@@ -2024,11 +2024,11 @@
         <v>880719390</v>
       </c>
       <c r="F13" s="7">
-        <f>(E13/86400)+DATE(1989,31,12)</f>
+        <f t="shared" si="0"/>
         <v>43624.511458333334</v>
       </c>
       <c r="G13">
-        <f>(F13-DATE(1989,31,12))*86400</f>
+        <f t="shared" si="1"/>
         <v>880719390.00000012</v>
       </c>
       <c r="H13" t="b">
@@ -2059,11 +2059,11 @@
         <v>880719814</v>
       </c>
       <c r="F14" s="7">
-        <f>(E14/86400)+DATE(1989,31,12)</f>
+        <f t="shared" si="0"/>
         <v>43624.516365740739</v>
       </c>
       <c r="G14">
-        <f>(F14-DATE(1989,31,12))*86400</f>
+        <f t="shared" si="1"/>
         <v>880719813.99999988</v>
       </c>
       <c r="H14" t="b">
@@ -2074,11 +2074,11 @@
         <v>420.28199999999998</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K17" si="0">ROUND(E14+J14,0)</f>
+        <f t="shared" ref="K14:K17" si="2">ROUND(E14+J14,0)</f>
         <v>880720234</v>
       </c>
       <c r="L14" t="b">
-        <f t="shared" ref="L14:L17" si="1">IF(K14=E15,K14=E15,ABS(K14-E15))</f>
+        <f t="shared" ref="L14:L17" si="3">IF(K14=E15,K14=E15,ABS(K14-E15))</f>
         <v>1</v>
       </c>
       <c r="M14" s="8"/>
@@ -2094,26 +2094,26 @@
         <v>880720234</v>
       </c>
       <c r="F15" s="7">
-        <f>(E15/86400)+DATE(1989,31,12)</f>
+        <f t="shared" si="0"/>
         <v>43624.521226851852</v>
       </c>
       <c r="G15">
-        <f>(F15-DATE(1989,31,12))*86400</f>
+        <f t="shared" si="1"/>
         <v>880720234</v>
       </c>
       <c r="H15" t="b">
-        <f t="shared" ref="H15:H17" si="2">G15=E15</f>
+        <f t="shared" ref="H15:H17" si="4">G15=E15</f>
         <v>1</v>
       </c>
       <c r="J15">
         <v>413.24299999999999</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>880720647</v>
       </c>
       <c r="L15" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M15" s="8"/>
@@ -2129,26 +2129,26 @@
         <v>880720647</v>
       </c>
       <c r="F16" s="7">
-        <f>(E16/86400)+DATE(1989,31,12)</f>
+        <f t="shared" si="0"/>
         <v>43624.526006944448</v>
       </c>
       <c r="G16">
-        <f>(F16-DATE(1989,31,12))*86400</f>
+        <f t="shared" si="1"/>
         <v>880720647.00000036</v>
       </c>
       <c r="H16" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J16">
         <v>411.90100000000001</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>880721059</v>
       </c>
       <c r="L16" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2163,26 +2163,26 @@
         <v>880721059</v>
       </c>
       <c r="F17" s="7">
-        <f>(E17/86400)+DATE(1989,31,12)</f>
+        <f t="shared" si="0"/>
         <v>43624.530775462961</v>
       </c>
       <c r="G17">
-        <f>(F17-DATE(1989,31,12))*86400</f>
+        <f t="shared" si="1"/>
         <v>880721058.99999988</v>
       </c>
       <c r="H17" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J17">
         <v>242.63900000000001</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>880721302</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>880721302</v>
       </c>
     </row>

--- a/files/Converter calculator.xlsx
+++ b/files/Converter calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhdinh\Desktop\GarFit\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38112E14-7706-45A5-93BE-00B0579E5B35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2ED812-6154-4838-8C3E-F4C2B60D93AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="4350" xr2:uid="{8A3FDF3D-9673-4881-829F-2BBAB3D8ACF3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1002,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1016,6 +1016,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB9D936-4C37-4DF4-A950-0DC99AC142A0}">
   <dimension ref="A3:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,14 +1651,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1307</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1714,14 +1717,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5838</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
     </row>
